--- a/mAjustesInventario/bak_m2406.xlsx
+++ b/mAjustesInventario/bak_m2406.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91EAD10C-0346-410C-95F4-CC81C0DB361A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB1AE3F6-6745-44B1-B103-3202635B620D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02149EBD-B340-4F20-A004-AEA26A6A8339}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2D4E3F3-B2F8-47BB-A44E-8BFB1B5E8CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,116 +35,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
-  <si>
-    <t>0098</t>
-  </si>
-  <si>
-    <t>021136414547</t>
-  </si>
-  <si>
-    <t>0281</t>
-  </si>
-  <si>
-    <t>0399</t>
-  </si>
-  <si>
-    <t>041789001987</t>
-  </si>
-  <si>
-    <t>0485</t>
-  </si>
-  <si>
-    <t>0501</t>
-  </si>
-  <si>
-    <t>0502</t>
-  </si>
-  <si>
-    <t>0503</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0161</t>
+  </si>
+  <si>
+    <t>0449</t>
+  </si>
+  <si>
+    <t>0450</t>
   </si>
   <si>
     <t>0504</t>
   </si>
   <si>
-    <t>0510</t>
-  </si>
-  <si>
-    <t>0511</t>
-  </si>
-  <si>
-    <t>0512</t>
-  </si>
-  <si>
-    <t>0513</t>
-  </si>
-  <si>
     <t>0518</t>
   </si>
   <si>
-    <t>0523</t>
-  </si>
-  <si>
-    <t>0524</t>
-  </si>
-  <si>
     <t>0527</t>
   </si>
   <si>
-    <t>0531</t>
-  </si>
-  <si>
-    <t>0532</t>
-  </si>
-  <si>
-    <t>0533</t>
-  </si>
-  <si>
     <t>0549</t>
   </si>
   <si>
-    <t>0551</t>
-  </si>
-  <si>
-    <t>0553</t>
-  </si>
-  <si>
     <t>0560</t>
   </si>
   <si>
     <t>0562</t>
   </si>
   <si>
-    <t>0651973531161</t>
-  </si>
-  <si>
-    <t>0701</t>
-  </si>
-  <si>
-    <t>0702</t>
+    <t>0565</t>
   </si>
   <si>
     <t>0704</t>
   </si>
   <si>
-    <t>0708</t>
-  </si>
-  <si>
-    <t>0709</t>
-  </si>
-  <si>
-    <t>0725</t>
-  </si>
-  <si>
-    <t>0781718679015</t>
-  </si>
-  <si>
-    <t>078917167406</t>
-  </si>
-  <si>
-    <t>0979</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -152,19 +85,16 @@
     <t>1012</t>
   </si>
   <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>102424</t>
-  </si>
-  <si>
     <t>102433</t>
   </si>
   <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>1104</t>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1116</t>
   </si>
   <si>
     <t>112502</t>
@@ -176,21 +106,27 @@
     <t>112509</t>
   </si>
   <si>
-    <t>12</t>
+    <t>112511</t>
+  </si>
+  <si>
+    <t>112513</t>
+  </si>
+  <si>
+    <t>112528</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>1151</t>
   </si>
   <si>
     <t>165</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2044</t>
-  </si>
-  <si>
     <t>207</t>
   </si>
   <si>
@@ -200,120 +136,54 @@
     <t>2083</t>
   </si>
   <si>
-    <t>2120</t>
-  </si>
-  <si>
-    <t>3155</t>
-  </si>
-  <si>
     <t>316</t>
   </si>
   <si>
     <t>317</t>
   </si>
   <si>
-    <t>326</t>
+    <t>339</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>4003050543</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>4253</t>
+    <t>4266</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>4854</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
     <t>510</t>
   </si>
   <si>
-    <t>550</t>
+    <t>564</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
-    <t>719886871948</t>
-  </si>
-  <si>
-    <t>7501017360789</t>
-  </si>
-  <si>
-    <t>7501018312039</t>
-  </si>
-  <si>
-    <t>7501020538212</t>
-  </si>
-  <si>
-    <t>7501020563757</t>
-  </si>
-  <si>
-    <t>7501032398217</t>
-  </si>
-  <si>
-    <t>7501036623384</t>
-  </si>
-  <si>
-    <t>7501055311811</t>
-  </si>
-  <si>
-    <t>7501072600172</t>
-  </si>
-  <si>
-    <t>7501096201546</t>
-  </si>
-  <si>
-    <t>7501125412042</t>
-  </si>
-  <si>
-    <t>7501361170270</t>
-  </si>
-  <si>
-    <t>7502211161967</t>
-  </si>
-  <si>
-    <t>7502219553573</t>
-  </si>
-  <si>
-    <t>7502223916272</t>
-  </si>
-  <si>
-    <t>7503023385121</t>
-  </si>
-  <si>
-    <t>7506350100917</t>
-  </si>
-  <si>
-    <t>760228</t>
+    <t>74</t>
+  </si>
+  <si>
+    <t>7501441604411</t>
+  </si>
+  <si>
+    <t>7506306225701</t>
   </si>
   <si>
     <t>815</t>
   </si>
   <si>
-    <t>848</t>
-  </si>
-  <si>
     <t>849</t>
   </si>
   <si>
     <t>897</t>
   </si>
   <si>
+    <t>902</t>
+  </si>
+  <si>
     <t>903</t>
   </si>
   <si>
@@ -326,18 +196,12 @@
     <t>911</t>
   </si>
   <si>
-    <t>912</t>
-  </si>
-  <si>
-    <t>913</t>
+    <t>914</t>
   </si>
   <si>
     <t>915</t>
   </si>
   <si>
-    <t>916</t>
-  </si>
-  <si>
     <t>918</t>
   </si>
   <si>
@@ -347,12 +211,6 @@
     <t>921</t>
   </si>
   <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>923</t>
-  </si>
-  <si>
     <t>924</t>
   </si>
   <si>
@@ -362,27 +220,36 @@
     <t>929</t>
   </si>
   <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>933</t>
+    <t>930</t>
   </si>
   <si>
     <t>934</t>
   </si>
   <si>
-    <t>937</t>
+    <t>940</t>
   </si>
   <si>
     <t>941</t>
   </si>
   <si>
-    <t>945</t>
+    <t>942</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>944</t>
   </si>
   <si>
     <t>946</t>
   </si>
   <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
     <t>950003</t>
   </si>
   <si>
@@ -401,10 +268,16 @@
     <t>950011</t>
   </si>
   <si>
+    <t>950012</t>
+  </si>
+  <si>
     <t>950015</t>
   </si>
   <si>
-    <t>950021</t>
+    <t>950017</t>
+  </si>
+  <si>
+    <t>950022</t>
   </si>
   <si>
     <t>950023</t>
@@ -416,27 +289,36 @@
     <t>952</t>
   </si>
   <si>
-    <t>953132</t>
+    <t>953</t>
   </si>
   <si>
     <t>954</t>
   </si>
   <si>
-    <t>957</t>
-  </si>
-  <si>
     <t>960</t>
   </si>
   <si>
+    <t>963</t>
+  </si>
+  <si>
     <t>965</t>
   </si>
   <si>
     <t>966</t>
   </si>
   <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
     <t>970</t>
   </si>
   <si>
+    <t>973</t>
+  </si>
+  <si>
     <t>975</t>
   </si>
   <si>
@@ -455,9 +337,6 @@
     <t>980</t>
   </si>
   <si>
-    <t>980304</t>
-  </si>
-  <si>
     <t>981</t>
   </si>
   <si>
@@ -474,6 +353,12 @@
   </si>
   <si>
     <t>987</t>
+  </si>
+  <si>
+    <t>988</t>
+  </si>
+  <si>
+    <t>997</t>
   </si>
 </sst>
 </file>
@@ -825,8 +710,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDBF8AE-C4DE-46B5-BA0B-CB6B34827DC4}">
-  <dimension ref="A1:B147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C04436-0551-40B8-8CBA-35FD281F35B6}">
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -839,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -847,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -855,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -871,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -879,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -887,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -895,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -903,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -911,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -919,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -927,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -935,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -943,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -951,7 +836,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -959,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -967,7 +852,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -975,7 +860,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -983,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -991,7 +876,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -999,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1007,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1015,7 +900,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1023,7 +908,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1031,7 +916,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1039,7 +924,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1047,7 +932,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1055,7 +940,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1063,7 +948,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1071,7 +956,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1079,7 +964,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1087,7 +972,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1095,7 +980,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1103,7 +988,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1111,7 +996,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1119,7 +1004,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1127,7 +1012,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>310</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1135,7 +1020,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1143,7 +1028,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1159,7 +1044,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1167,7 +1052,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1175,7 +1060,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1183,7 +1068,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1191,7 +1076,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1199,7 +1084,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1207,7 +1092,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1223,7 +1108,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1231,7 +1116,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1239,7 +1124,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1247,7 +1132,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1255,7 +1140,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1263,7 +1148,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1271,7 +1156,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>955</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1279,7 +1164,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1287,7 +1172,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1295,7 +1180,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1303,7 +1188,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1311,7 +1196,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1319,7 +1204,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1327,7 +1212,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1343,7 +1228,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1351,7 +1236,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1359,7 +1244,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1367,7 +1252,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1375,7 +1260,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1383,7 +1268,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1391,7 +1276,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1399,7 +1284,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1407,7 +1292,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1415,7 +1300,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1431,7 +1316,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1439,7 +1324,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1455,7 +1340,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1463,7 +1348,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1471,7 +1356,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1479,7 +1364,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1487,7 +1372,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1495,7 +1380,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1503,7 +1388,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1511,7 +1396,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1519,7 +1404,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1527,7 +1412,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1543,7 +1428,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1551,7 +1436,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1559,7 +1444,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1567,7 +1452,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1575,7 +1460,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1599,7 +1484,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1607,7 +1492,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1615,7 +1500,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1623,7 +1508,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1639,7 +1524,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1655,7 +1540,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1663,7 +1548,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1671,7 +1556,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1679,7 +1564,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1687,7 +1572,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1695,319 +1580,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
